--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:45:47+00:00</t>
+    <t>2024-05-03T11:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:27:24+00:00</t>
+    <t>2024-05-03T11:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:29:30+00:00</t>
+    <t>2024-05-03T11:45:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:45:56+00:00</t>
+    <t>2024-05-03T11:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Réponse de la transaction IHE "Find Document References [ITI-67]" basée sur le bundle MHD http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentReferencesComprehensiveResponseMessage et profilé pour le volet PDSm</t>
+    <t>Profil de réponse de la transaction IHE "Find Document References [ITI-67]" basée sur le bundle MHD http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentReferencesComprehensiveResponseMessage et profilé pour le volet PDSm</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:56:06+00:00</t>
+    <t>2024-05-03T11:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:59:52+00:00</t>
+    <t>2024-05-03T12:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T12:59:12+00:00</t>
+    <t>2024-05-28T07:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de réponse de la transaction IHE "Find Document References [ITI-67]" basée sur le bundle MHD http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentReferencesComprehensiveResponseMessage et profilé pour le volet PDSm</t>
+    <t>Profil de réponse de la transaction IHE "Find Document References [ITI-67]" basée sur le bundle MHD FindDocumentReferencesComprehensiveResponseMessage et profilé pour le volet PDSm</t>
   </si>
   <si>
     <t>Purpose</t>
